--- a/data_group/shapiro_test_temp_results.xlsx
+++ b/data_group/shapiro_test_temp_results.xlsx
@@ -1582,7 +1582,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1602,7 +1602,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1622,7 +1622,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1642,7 +1642,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1662,7 +1662,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1682,7 +1682,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1722,7 +1722,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1742,7 +1742,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1762,7 +1762,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1782,7 +1782,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1802,7 +1802,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1822,7 +1822,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1862,7 +1862,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1882,7 +1882,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1902,7 +1902,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1922,7 +1922,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1942,7 +1942,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1962,7 +1962,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1982,7 +1982,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2022,7 +2022,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2042,7 +2042,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2062,7 +2062,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2082,7 +2082,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2102,7 +2102,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2122,7 +2122,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2142,7 +2142,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2162,7 +2162,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">

--- a/data_group/shapiro_test_temp_results.xlsx
+++ b/data_group/shapiro_test_temp_results.xlsx
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1448582737300857</v>
+        <v>0.1925084587122483</v>
       </c>
     </row>
     <row r="3">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.1397730777237957</v>
+        <v>0.138290214220799</v>
       </c>
     </row>
     <row r="4">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.1569815018116382</v>
+        <v>0.1476850814313941</v>
       </c>
     </row>
     <row r="5">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.1785300874361637</v>
+        <v>0.1777188039004779</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.1992230931817625</v>
+        <v>0.2015520920810416</v>
       </c>
     </row>
     <row r="7">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.708693100190712</v>
+        <v>0.5498642277879613</v>
       </c>
     </row>
     <row r="13">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.65533904767972</v>
+        <v>0.5584768105026325</v>
       </c>
     </row>
     <row r="14">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.6114954929654621</v>
+        <v>0.6121936494471412</v>
       </c>
     </row>
     <row r="15">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.515900471496148</v>
+        <v>0.5427522806304337</v>
       </c>
     </row>
     <row r="16">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.455539540269112</v>
+        <v>0.4891489583113569</v>
       </c>
     </row>
     <row r="17">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.7814557480710722</v>
+        <v>0.9496758691313384</v>
       </c>
     </row>
     <row r="23">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.8246072786269976</v>
+        <v>0.9369696121276931</v>
       </c>
     </row>
     <row r="24">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.8589680093851819</v>
+        <v>0.9074216319000655</v>
       </c>
     </row>
     <row r="25">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.8799451389107635</v>
+        <v>0.9018163188694772</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.8899908550661302</v>
+        <v>0.9052761330749589</v>
       </c>
     </row>
     <row r="27">
